--- a/data/V6-cyano-level6-mod.xlsx
+++ b/data/V6-cyano-level6-mod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucij\Documents\NGS Cyano analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hrvoje\Documents\R-cyano-metabarcoding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29AA1AB-802C-4EE8-8A2A-601B63454665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD7EB26-14DD-4C85-A701-596FA6F5758E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02C0248E-5A92-4667-8831-A067FA7CD6E1}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{02C0248E-5A92-4667-8831-A067FA7CD6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -958,30 +958,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851B28B1-F003-4035-9434-BE1E65298683}">
   <dimension ref="A1:AG404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H223" sqref="H223:H235"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H356" sqref="H356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="107" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="AE1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>26</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>27</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>23</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>26</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>27</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -4271,7 +4271,7 @@
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>19</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
@@ -4399,7 +4399,7 @@
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -4460,7 +4460,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
@@ -4521,7 +4521,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>23</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>25</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>26</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -4838,7 +4838,7 @@
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>17</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>20</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>22</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>23</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>24</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>25</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>26</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>27</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>19</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>20</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>22</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>24</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>25</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>26</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>27</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>14</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>17</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>19</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>20</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>22</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>23</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>24</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>25</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>26</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>27</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>16</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>18</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>19</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>21</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>22</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>23</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>24</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>25</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>26</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>27</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>14</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>16</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>17</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>18</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>19</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>20</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>21</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>22</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>23</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>24</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>25</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>26</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>27</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>14</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>18</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>19</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>20</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>21</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>22</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>23</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>24</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>25</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>26</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>27</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>14</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>16</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>17</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>18</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>19</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>20</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>21</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>22</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>23</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>24</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>25</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>26</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>27</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>14</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>17</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>18</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>19</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>20</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>22</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>23</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>24</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>25</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>26</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>27</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>16</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>17</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>18</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>19</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>20</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>21</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>22</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>23</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>24</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>25</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>26</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>27</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>105</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I197" s="1">
         <v>55</v>
@@ -10267,7 +10267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>16</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>105</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I198" s="1">
         <v>55</v>
@@ -10314,7 +10314,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>17</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>105</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I199" s="1">
         <v>55</v>
@@ -10361,7 +10361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>18</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>105</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I200" s="1">
         <v>55</v>
@@ -10408,7 +10408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>19</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>105</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I201" s="1">
         <v>55</v>
@@ -10455,7 +10455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>20</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>105</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I202" s="1">
         <v>55</v>
@@ -10502,7 +10502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>21</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>105</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I203" s="1">
         <v>55</v>
@@ -10549,7 +10549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>22</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>105</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I204" s="1">
         <v>55</v>
@@ -10596,7 +10596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>23</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>105</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I205" s="1">
         <v>55</v>
@@ -10643,7 +10643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>24</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>105</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I206" s="1">
         <v>55</v>
@@ -10690,7 +10690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>25</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>105</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I207" s="1">
         <v>55</v>
@@ -10737,7 +10737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>26</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>105</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I208" s="1">
         <v>55</v>
@@ -10784,7 +10784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>27</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>105</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I209" s="1">
         <v>55</v>
@@ -10831,7 +10831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>14</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>17</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>18</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>19</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>20</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>21</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>22</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>23</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>24</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>25</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>26</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>14</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>16</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>17</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>18</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>19</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>20</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>21</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>22</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>23</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>24</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>25</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>26</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>27</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>14</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>14</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>16</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>17</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>18</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>19</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>20</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>21</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>22</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>23</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>24</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>25</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>26</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>27</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>14</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>16</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>17</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>18</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>19</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>20</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>21</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>22</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>23</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>24</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>25</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>26</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>27</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>14</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>16</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>17</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>18</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>19</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>20</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>21</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>22</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>23</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>24</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>25</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>26</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>27</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>14</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>16</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>17</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>18</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>19</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>20</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>21</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>22</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>23</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>24</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>25</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>26</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>27</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>14</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>16</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>17</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>18</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>19</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>20</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>21</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>22</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>23</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>24</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>25</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>26</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>27</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>14</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>16</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>17</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>18</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>19</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>20</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>21</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>22</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>23</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>24</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>25</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>26</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>27</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>14</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>16</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>17</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>18</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>19</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>20</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>21</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>22</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>23</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>24</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>25</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>26</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>27</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>14</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>155</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I340" s="1">
         <v>52</v>
@@ -16754,7 +16754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>16</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>155</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I341" s="1">
         <v>52</v>
@@ -16801,7 +16801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>17</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>155</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I342" s="1">
         <v>52</v>
@@ -16848,7 +16848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>18</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>155</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I343" s="1">
         <v>52</v>
@@ -16895,7 +16895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>19</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>155</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I344" s="1">
         <v>52</v>
@@ -16942,7 +16942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>20</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>155</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I345" s="1">
         <v>52</v>
@@ -16989,7 +16989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>21</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>155</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I346" s="1">
         <v>52</v>
@@ -17036,7 +17036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>22</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>155</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I347" s="1">
         <v>52</v>
@@ -17083,7 +17083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>23</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>155</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I348" s="1">
         <v>52</v>
@@ -17130,7 +17130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>24</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>155</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I349" s="1">
         <v>52</v>
@@ -17177,7 +17177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>25</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>155</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I350" s="1">
         <v>52</v>
@@ -17224,7 +17224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>26</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>155</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I351" s="1">
         <v>52</v>
@@ -17271,7 +17271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>27</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>155</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I352" s="1">
         <v>52</v>
@@ -17318,7 +17318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>14</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>16</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>17</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>18</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>19</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>20</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>21</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>22</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>23</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>24</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>25</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>26</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>27</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>14</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>16</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>17</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>18</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>19</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>20</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>21</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>22</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>23</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>24</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>25</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>26</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>27</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>14</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>16</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>17</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>18</v>
       </c>
@@ -18692,7 +18692,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>19</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>20</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>21</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>22</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>23</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>24</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>25</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>26</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>27</v>
       </c>
@@ -19034,55 +19034,55 @@
         <v>167</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
     </row>
@@ -19316,20 +19316,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3f692f37-e796-4dec-9fba-40f027bb302e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3f692f37-e796-4dec-9fba-40f027bb302e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19352,14 +19352,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C327D8EF-6975-4FC7-A389-290E22F1E18F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92B0765B-F008-4ACA-99A7-77ABDB769654}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -19374,4 +19366,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C327D8EF-6975-4FC7-A389-290E22F1E18F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>